--- a/docs/assets/disciplinas/LOB1021.xlsx
+++ b/docs/assets/disciplinas/LOB1021.xlsx
@@ -64,7 +64,7 @@
     <t>Semestre ideal:</t>
   </si>
   <si>
-    <t>EF-4,EM-4,EA-4</t>
+    <t>EF-4,EA-5</t>
   </si>
   <si>
     <t>Objetivos:</t>

--- a/docs/assets/disciplinas/LOB1021.xlsx
+++ b/docs/assets/disciplinas/LOB1021.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Discutir as consequências da natureza ondulatória da luz do ponto de vista das equações de Maxwell, familiarizando o estudante com os conceitos de interferência, difração e polarização. Apresentar os conceitos centrais da física moderna como a relatividade restrita e os fundamentos da mecânica quântica</t>
+    <t>230696 - Carlos José Todero Peixoto</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -82,13 +82,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>230696 - Carlos José Todero Peixoto</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Óptica Geométrica. Introdução a Física Moderna: natureza ondulatória da matéria, relatividade e introdução a mecânica quântica.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -100,9 +97,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1) Óptica Geométrica: conceitos básicos. 2) Interferência: a experiência de Young; coerência; figuras de interferência; o interferômetro de Michelson.3) Difração.4) Polarização.5) Relatividade: os postulados da relatividade, as transformações de Lorentz, simultaneidade, tempo e comprimento; momento linear, trabalho e energia;6) Primórdios da teoria quântica: a hipótese de Plank; o efeito fotoelétrico, quantização do fóton; ondas de De Broglie, o efeito Compton, a difração de elétrons, interferência; 7) Princípios básicos da mecânica quântica: o princípio de incerteza; a equação de Schrödinger.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -115,25 +109,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>NF=A avaliação será composta por provas, listas, projetos, seminários e outras formas que farão a composição das notas, sendo estipulada a média final a somatória destas notas (N), com no mínimo duas avaliações, sendo: (N1+...+Nn)/n.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>NF≥ 5,0.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>(NF+RC)/2 ≥ 5,0, onde RC é uma prova de recuperação a ser aplicada.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>NUSSENZVEIG, H.M. Curso de Física Básica. Vol. 4, Edgard Blucher (2008).RESNICK, R.; HALLIDAY, D. Fundamentos de Física. Vol. 4, LTC (2008).TIPLER, P.; MOSCA, G. Física para Cientistas e Engenheiros. Vol. 4, LTC (2008).SEARS, F. W.; ZEMANSKY, M. W.; YOUNG, H. D.; FREEDMAN, R. A. Física IV, Vol. 4, Pearson Addison Wesley (2009).JEWETT Jr, John W.; SERWAY, Raymond A. Princípios de Física. Vol. 4, Thomson Pioneira (2008).</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -500,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,34 +622,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -672,85 +666,74 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>40</v>
+      <c r="C23" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOB1021.xlsx
+++ b/docs/assets/disciplinas/LOB1021.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,22 +70,25 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Discutir as consequências da natureza ondulatória da luz do ponto de vista das equações de Maxwell, familiarizando o estudante com os conceitos de interferência, difração e polarização. Apresentar os conceitos centrais da física moderna como a relatividade restrita e os fundamentos da mecânica quântica</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>To discuss the consequences of Maxwell’s equations in the description of light propagation such as wave interference, diffraction and polarisation. To introduce the fundamental concepts of modern physics including Einstein’s special theory of relativity and the principles of quantum mechanics.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>230696 - Carlos José Todero Peixoto</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>To discuss the consequences of Maxwell’s equations in the description of light propagation such as wave interference, diffraction and polarisation. To introduce the fundamental concepts of modern physics including Einstein’s special theory of relativity and the principles of quantum mechanics.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Óptica Geométrica. Introdução a Física Moderna: natureza ondulatória da matéria, relatividade e introdução a mecânica quântica.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,6 +100,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>1) Óptica Geométrica: conceitos básicos. 2) Interferência: a experiência de Young; coerência; figuras de interferência; o interferômetro de Michelson.3) Difração.4) Polarização.5) Relatividade: os postulados da relatividade, as transformações de Lorentz, simultaneidade, tempo e comprimento; momento linear, trabalho e energia;6) Primórdios da teoria quântica: a hipótese de Plank; o efeito fotoelétrico, quantização do fóton; ondas de De Broglie, o efeito Compton, a difração de elétrons, interferência; 7) Princípios básicos da mecânica quântica: o princípio de incerteza; a equação de Schrödinger.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -109,22 +115,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>NF=A avaliação será composta por provas, listas, projetos, seminários e outras formas que farão a composição das notas, sendo estipulada a média final a somatória destas notas (N), com no mínimo duas avaliações, sendo: (N1+...+Nn)/n.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>NF=A avaliação será composta por provas, listas, projetos, seminários e outras formas que farão a composição das notas, sendo estipulada a média final a somatória destas notas (N), com no mínimo duas avaliações, sendo: (N1+...+Nn)/n.</t>
+    <t>NF≥ 5,0.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>NF≥ 5,0.</t>
+    <t>(NF+RC)/2 ≥ 5,0, onde RC é uma prova de recuperação a ser aplicada.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>(NF+RC)/2 ≥ 5,0, onde RC é uma prova de recuperação a ser aplicada.</t>
+    <t>NUSSENZVEIG, H.M. Curso de Física Básica. Vol. 4, Edgard Blucher (2008).RESNICK, R.; HALLIDAY, D. Fundamentos de Física. Vol. 4, LTC (2008).TIPLER, P.; MOSCA, G. Física para Cientistas e Engenheiros. Vol. 4, LTC (2008).SEARS, F. W.; ZEMANSKY, M. W.; YOUNG, H. D.; FREEDMAN, R. A. Física IV, Vol. 4, Pearson Addison Wesley (2009).JEWETT Jr, John W.; SERWAY, Raymond A. Princípios de Física. Vol. 4, Thomson Pioneira (2008).</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -491,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -622,37 +631,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -666,74 +672,85 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>38</v>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1">
+      <c r="B25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
